--- a/archivos_recibidos/Validaciones .xlsx
+++ b/archivos_recibidos/Validaciones .xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,7 +15,10 @@
     <sheet name="Ingreso" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Ingreso!$A$1:$F$228</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -933,7 +936,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -956,7 +959,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -981,6 +984,42 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -994,7 +1033,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1002,7 +1041,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -1013,6 +1051,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1363,10 +1410,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="46.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1375,7 +1423,7 @@
     <col min="2" max="2" width="10.42578125" customWidth="1"/>
     <col min="3" max="3" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.5703125" style="7"/>
+    <col min="5" max="5" width="46.5703125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1391,916 +1439,916 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="8" t="s">
+      <c r="D10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="8" t="s">
+      <c r="D11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="8" t="s">
+      <c r="D12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D15" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="6" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="6" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>31</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>34</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>35</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>36</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D24" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>38</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D25" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>40</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D26" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="6" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>41</v>
       </c>
       <c r="B27" t="s">
         <v>20</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D27" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="6" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>42</v>
       </c>
       <c r="B28" t="s">
         <v>20</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D28" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>44</v>
       </c>
       <c r="B29" t="s">
         <v>20</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>45</v>
       </c>
       <c r="B30" t="s">
         <v>20</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D30" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>46</v>
       </c>
       <c r="B31" t="s">
         <v>20</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D31" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>47</v>
       </c>
       <c r="B32" t="s">
         <v>20</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D32" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>48</v>
       </c>
       <c r="B33" t="s">
         <v>20</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>49</v>
       </c>
       <c r="B34" t="s">
         <v>50</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>51</v>
       </c>
       <c r="B35" t="s">
         <v>50</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>52</v>
       </c>
       <c r="B36" t="s">
         <v>50</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D36" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>53</v>
       </c>
       <c r="B37" t="s">
         <v>54</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D37" t="s">
         <v>8</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>56</v>
       </c>
       <c r="B38" t="s">
         <v>20</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D38" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="6" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>57</v>
       </c>
       <c r="B39" t="s">
         <v>20</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D39" t="s">
         <v>27</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>59</v>
       </c>
       <c r="B40" t="s">
         <v>20</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D40" t="s">
         <v>27</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="6" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B41" t="s">
         <v>50</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D41" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>61</v>
       </c>
       <c r="B42" t="s">
         <v>50</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D42" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>62</v>
       </c>
       <c r="B43" t="s">
         <v>50</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D43" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>63</v>
       </c>
       <c r="B44" t="s">
         <v>50</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D44" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>64</v>
       </c>
       <c r="B45" t="s">
         <v>50</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D45" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B46" t="s">
         <v>50</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D46" t="s">
         <v>27</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="6" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B47" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="B47" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D47" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="7" t="s">
+      <c r="D47" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>68</v>
       </c>
       <c r="B48" t="s">
         <v>14</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="11" t="s">
         <v>67</v>
       </c>
       <c r="D48" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>69</v>
       </c>
       <c r="B49" t="s">
         <v>20</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="11" t="s">
         <v>67</v>
       </c>
       <c r="D49" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>70</v>
       </c>
       <c r="B50" t="s">
         <v>14</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="11" t="s">
         <v>67</v>
       </c>
       <c r="D50" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B51" t="s">
         <v>20</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="11" t="s">
         <v>67</v>
       </c>
       <c r="D51" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>72</v>
       </c>
       <c r="B52" t="s">
         <v>14</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="11" t="s">
         <v>67</v>
       </c>
       <c r="D52" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>73</v>
       </c>
       <c r="B53" t="s">
         <v>20</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="11" t="s">
         <v>67</v>
       </c>
       <c r="D53" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>74</v>
       </c>
       <c r="B54" t="s">
         <v>6</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="11" t="s">
         <v>67</v>
       </c>
       <c r="D54" t="s">
         <v>27</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E54" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>76</v>
       </c>
       <c r="B55" t="s">
         <v>6</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="11" t="s">
         <v>67</v>
       </c>
       <c r="D55" t="s">
         <v>27</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E55" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>77</v>
       </c>
       <c r="B56" t="s">
         <v>20</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="11" t="s">
         <v>67</v>
       </c>
       <c r="D56" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>78</v>
       </c>
       <c r="B57" t="s">
         <v>20</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="11" t="s">
         <v>67</v>
       </c>
       <c r="D57" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>79</v>
       </c>
       <c r="B58" t="s">
         <v>6</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="11" t="s">
         <v>67</v>
       </c>
       <c r="D58" t="s">
         <v>27</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E58" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>81</v>
       </c>
       <c r="B59" t="s">
         <v>6</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="11" t="s">
         <v>67</v>
       </c>
       <c r="D59" t="s">
         <v>27</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E59" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>83</v>
       </c>
       <c r="B60" t="s">
         <v>6</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="11" t="s">
         <v>67</v>
       </c>
       <c r="D60" t="s">
         <v>27</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E60" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>84</v>
       </c>
       <c r="B61" t="s">
         <v>20</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="11" t="s">
         <v>67</v>
       </c>
       <c r="D61" t="s">
         <v>27</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="E61" s="6" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2311,7 +2359,7 @@
       <c r="B62" t="s">
         <v>20</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D62" t="s">
@@ -2325,13 +2373,13 @@
       <c r="B63" t="s">
         <v>20</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D63" t="s">
         <v>27</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="E63" s="6" t="s">
         <v>273</v>
       </c>
     </row>
@@ -2342,7 +2390,7 @@
       <c r="B64" t="s">
         <v>14</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D64" t="s">
@@ -2356,7 +2404,7 @@
       <c r="B65" t="s">
         <v>20</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D65" t="s">
@@ -2370,7 +2418,7 @@
       <c r="B66" t="s">
         <v>20</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D66" t="s">
@@ -2384,7 +2432,7 @@
       <c r="B67" t="s">
         <v>20</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D67" t="s">
@@ -2398,7 +2446,7 @@
       <c r="B68" t="s">
         <v>20</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D68" t="s">
@@ -2412,7 +2460,7 @@
       <c r="B69" t="s">
         <v>20</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D69" t="s">
@@ -2426,7 +2474,7 @@
       <c r="B70" t="s">
         <v>14</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D70" t="s">
@@ -2440,7 +2488,7 @@
       <c r="B71" t="s">
         <v>20</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D71" t="s">
@@ -2454,7 +2502,7 @@
       <c r="B72" t="s">
         <v>20</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D72" t="s">
@@ -2468,7 +2516,7 @@
       <c r="B73" t="s">
         <v>20</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D73" t="s">
@@ -2482,7 +2530,7 @@
       <c r="B74" t="s">
         <v>20</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D74" t="s">
@@ -2496,13 +2544,13 @@
       <c r="B75" t="s">
         <v>20</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D75" t="s">
         <v>27</v>
       </c>
-      <c r="E75" s="7" t="s">
+      <c r="E75" s="6" t="s">
         <v>274</v>
       </c>
     </row>
@@ -2513,7 +2561,7 @@
       <c r="B76" t="s">
         <v>50</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D76" t="s">
@@ -2527,7 +2575,7 @@
       <c r="B77" t="s">
         <v>50</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D77" t="s">
@@ -2541,7 +2589,7 @@
       <c r="B78" t="s">
         <v>50</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D78" t="s">
@@ -2555,7 +2603,7 @@
       <c r="B79" t="s">
         <v>20</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D79" t="s">
@@ -2569,13 +2617,13 @@
       <c r="B80" t="s">
         <v>6</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D80" t="s">
         <v>27</v>
       </c>
-      <c r="E80" s="7" t="s">
+      <c r="E80" s="6" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2586,7 +2634,7 @@
       <c r="B81" t="s">
         <v>20</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D81" t="s">
@@ -2600,13 +2648,13 @@
       <c r="B82" t="s">
         <v>20</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D82" t="s">
         <v>27</v>
       </c>
-      <c r="E82" s="7" t="s">
+      <c r="E82" s="6" t="s">
         <v>275</v>
       </c>
     </row>
@@ -2617,7 +2665,7 @@
       <c r="B83" t="s">
         <v>50</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D83" t="s">
@@ -2631,7 +2679,7 @@
       <c r="B84" t="s">
         <v>50</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D84" t="s">
@@ -2645,21 +2693,21 @@
       <c r="B85" t="s">
         <v>20</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D85" t="s">
         <v>27</v>
       </c>
-      <c r="E85" s="7" t="s">
+      <c r="E85" s="6" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="s">
+      <c r="A86" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="12" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2670,7 +2718,7 @@
       <c r="B87" t="s">
         <v>20</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D87" t="s">
@@ -2684,7 +2732,7 @@
       <c r="B88" t="s">
         <v>14</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D88" t="s">
@@ -2698,7 +2746,7 @@
       <c r="B89" t="s">
         <v>14</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D89" t="s">
@@ -2712,7 +2760,7 @@
       <c r="B90" t="s">
         <v>14</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D90" t="s">
@@ -2726,13 +2774,13 @@
       <c r="B91" t="s">
         <v>20</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D91" t="s">
         <v>27</v>
       </c>
-      <c r="E91" s="7" t="s">
+      <c r="E91" s="6" t="s">
         <v>277</v>
       </c>
     </row>
@@ -2743,7 +2791,7 @@
       <c r="B92" t="s">
         <v>14</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D92" t="s">
@@ -2751,10 +2799,10 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="4" t="s">
+      <c r="A93" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="12" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2765,7 +2813,7 @@
       <c r="B94" t="s">
         <v>20</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D94" t="s">
@@ -2779,7 +2827,7 @@
       <c r="B95" t="s">
         <v>14</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D95" t="s">
@@ -2793,7 +2841,7 @@
       <c r="B96" t="s">
         <v>14</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D96" t="s">
@@ -2807,7 +2855,7 @@
       <c r="B97" t="s">
         <v>14</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D97" t="s">
@@ -2821,13 +2869,13 @@
       <c r="B98" t="s">
         <v>20</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D98" t="s">
         <v>27</v>
       </c>
-      <c r="E98" s="7" t="s">
+      <c r="E98" s="6" t="s">
         <v>278</v>
       </c>
     </row>
@@ -2838,7 +2886,7 @@
       <c r="B99" t="s">
         <v>14</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D99" t="s">
@@ -2852,13 +2900,13 @@
       <c r="B100" t="s">
         <v>6</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D100" t="s">
         <v>27</v>
       </c>
-      <c r="E100" s="7" t="s">
+      <c r="E100" s="6" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2869,7 +2917,7 @@
       <c r="B101" t="s">
         <v>20</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D101" t="s">
@@ -2883,13 +2931,13 @@
       <c r="B102" t="s">
         <v>20</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D102" t="s">
         <v>27</v>
       </c>
-      <c r="E102" s="7" t="s">
+      <c r="E102" s="6" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2900,13 +2948,13 @@
       <c r="B103" t="s">
         <v>14</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D103" t="s">
         <v>27</v>
       </c>
-      <c r="E103" s="7" t="s">
+      <c r="E103" s="6" t="s">
         <v>279</v>
       </c>
     </row>
@@ -2917,7 +2965,7 @@
       <c r="B104" t="s">
         <v>50</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D104" t="s">
@@ -2931,7 +2979,7 @@
       <c r="B105" t="s">
         <v>50</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D105" t="s">
@@ -2945,13 +2993,13 @@
       <c r="B106" t="s">
         <v>6</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D106" t="s">
         <v>27</v>
       </c>
-      <c r="E106" s="7" t="s">
+      <c r="E106" s="6" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2962,13 +3010,13 @@
       <c r="B107" t="s">
         <v>20</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D107" t="s">
         <v>27</v>
       </c>
-      <c r="E107" s="7" t="s">
+      <c r="E107" s="6" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2979,13 +3027,13 @@
       <c r="B108" t="s">
         <v>6</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D108" t="s">
         <v>27</v>
       </c>
-      <c r="E108" s="7" t="s">
+      <c r="E108" s="6" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2996,13 +3044,13 @@
       <c r="B109" t="s">
         <v>6</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D109" t="s">
         <v>135</v>
       </c>
-      <c r="E109" s="7" t="s">
+      <c r="E109" s="6" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3013,13 +3061,13 @@
       <c r="B110" t="s">
         <v>14</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D110" t="s">
         <v>27</v>
       </c>
-      <c r="E110" s="7" t="s">
+      <c r="E110" s="6" t="s">
         <v>279</v>
       </c>
     </row>
@@ -3030,13 +3078,13 @@
       <c r="B111" t="s">
         <v>6</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D111" t="s">
         <v>27</v>
       </c>
-      <c r="E111" s="7" t="s">
+      <c r="E111" s="6" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3047,17 +3095,17 @@
       <c r="B112" t="s">
         <v>14</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D112" t="s">
         <v>27</v>
       </c>
-      <c r="E112" s="7" t="s">
+      <c r="E112" s="6" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>140</v>
       </c>
@@ -3070,7 +3118,7 @@
       <c r="D113" t="s">
         <v>27</v>
       </c>
-      <c r="E113" s="7" t="s">
+      <c r="E113" s="6" t="s">
         <v>280</v>
       </c>
     </row>
@@ -3081,13 +3129,13 @@
       <c r="B114" t="s">
         <v>6</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D114" t="s">
         <v>27</v>
       </c>
-      <c r="E114" s="7" t="s">
+      <c r="E114" s="6" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3098,13 +3146,13 @@
       <c r="B115" t="s">
         <v>6</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D115" t="s">
         <v>27</v>
       </c>
-      <c r="E115" s="7" t="s">
+      <c r="E115" s="6" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3115,13 +3163,13 @@
       <c r="B116" t="s">
         <v>20</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D116" t="s">
         <v>27</v>
       </c>
-      <c r="E116" s="7" t="s">
+      <c r="E116" s="6" t="s">
         <v>281</v>
       </c>
     </row>
@@ -3132,13 +3180,13 @@
       <c r="B117" t="s">
         <v>6</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D117" t="s">
         <v>27</v>
       </c>
-      <c r="E117" s="7" t="s">
+      <c r="E117" s="6" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3149,13 +3197,13 @@
       <c r="B118" t="s">
         <v>6</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D118" t="s">
         <v>27</v>
       </c>
-      <c r="E118" s="7" t="s">
+      <c r="E118" s="6" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3166,13 +3214,13 @@
       <c r="B119" t="s">
         <v>20</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D119" t="s">
         <v>27</v>
       </c>
-      <c r="E119" s="7" t="s">
+      <c r="E119" s="6" t="s">
         <v>282</v>
       </c>
     </row>
@@ -3183,13 +3231,13 @@
       <c r="B120" t="s">
         <v>6</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D120" t="s">
         <v>8</v>
       </c>
-      <c r="E120" s="7" t="s">
+      <c r="E120" s="6" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3200,13 +3248,13 @@
       <c r="B121" t="s">
         <v>6</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D121" t="s">
         <v>8</v>
       </c>
-      <c r="E121" s="7" t="s">
+      <c r="E121" s="6" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3217,13 +3265,13 @@
       <c r="B122" t="s">
         <v>20</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D122" t="s">
         <v>27</v>
       </c>
-      <c r="E122" s="7" t="s">
+      <c r="E122" s="6" t="s">
         <v>283</v>
       </c>
       <c r="F122" t="s">
@@ -3237,13 +3285,13 @@
       <c r="B123" t="s">
         <v>20</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D123" t="s">
         <v>27</v>
       </c>
-      <c r="E123" s="7" t="s">
+      <c r="E123" s="6" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3254,13 +3302,13 @@
       <c r="B124" t="s">
         <v>20</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D124" t="s">
         <v>27</v>
       </c>
-      <c r="E124" s="7" t="s">
+      <c r="E124" s="6" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3271,13 +3319,13 @@
       <c r="B125" t="s">
         <v>50</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D125" t="s">
         <v>27</v>
       </c>
-      <c r="E125" s="7" t="s">
+      <c r="E125" s="6" t="s">
         <v>284</v>
       </c>
     </row>
@@ -3288,7 +3336,7 @@
       <c r="B126" t="s">
         <v>20</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D126" t="s">
@@ -3302,7 +3350,7 @@
       <c r="B127" t="s">
         <v>20</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D127" t="s">
@@ -3316,7 +3364,7 @@
       <c r="B128" t="s">
         <v>50</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D128" t="s">
@@ -3330,7 +3378,7 @@
       <c r="B129" t="s">
         <v>50</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D129" t="s">
@@ -3344,13 +3392,13 @@
       <c r="B130" t="s">
         <v>20</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D130" t="s">
         <v>27</v>
       </c>
-      <c r="E130" s="7" t="s">
+      <c r="E130" s="6" t="s">
         <v>285</v>
       </c>
     </row>
@@ -3361,13 +3409,13 @@
       <c r="B131" t="s">
         <v>20</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D131" t="s">
         <v>27</v>
       </c>
-      <c r="E131" s="7" t="s">
+      <c r="E131" s="6" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3378,13 +3426,13 @@
       <c r="B132" t="s">
         <v>20</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D132" t="s">
         <v>27</v>
       </c>
-      <c r="E132" s="7" t="s">
+      <c r="E132" s="6" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3395,7 +3443,7 @@
       <c r="B133" t="s">
         <v>20</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D133" t="s">
@@ -3409,13 +3457,13 @@
       <c r="B134" t="s">
         <v>20</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D134" t="s">
         <v>27</v>
       </c>
-      <c r="E134" s="7" t="s">
+      <c r="E134" s="6" t="s">
         <v>286</v>
       </c>
     </row>
@@ -3426,7 +3474,7 @@
       <c r="B135" t="s">
         <v>50</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D135" t="s">
@@ -3440,7 +3488,7 @@
       <c r="B136" t="s">
         <v>50</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D136" t="s">
@@ -3454,7 +3502,7 @@
       <c r="B137" t="s">
         <v>50</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D137" t="s">
@@ -3468,13 +3516,13 @@
       <c r="B138" t="s">
         <v>6</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D138" t="s">
         <v>27</v>
       </c>
-      <c r="E138" s="7" t="s">
+      <c r="E138" s="6" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3485,7 +3533,7 @@
       <c r="B139" t="s">
         <v>14</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D139" t="s">
@@ -3499,7 +3547,7 @@
       <c r="B140" t="s">
         <v>20</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D140" t="s">
@@ -3513,13 +3561,13 @@
       <c r="B141" t="s">
         <v>20</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D141" t="s">
         <v>27</v>
       </c>
-      <c r="E141" s="7" t="s">
+      <c r="E141" s="6" t="s">
         <v>287</v>
       </c>
     </row>
@@ -3530,7 +3578,7 @@
       <c r="B142" t="s">
         <v>50</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D142" t="s">
@@ -3544,7 +3592,7 @@
       <c r="B143" t="s">
         <v>50</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D143" t="s">
@@ -3558,7 +3606,7 @@
       <c r="B144" t="s">
         <v>20</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D144" t="s">
@@ -3572,7 +3620,7 @@
       <c r="B145" t="s">
         <v>20</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D145" t="s">
@@ -3586,13 +3634,13 @@
       <c r="B146" t="s">
         <v>6</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D146" t="s">
         <v>27</v>
       </c>
-      <c r="E146" s="7" t="s">
+      <c r="E146" s="6" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3603,7 +3651,7 @@
       <c r="B147" t="s">
         <v>20</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D147" t="s">
@@ -3617,13 +3665,13 @@
       <c r="B148" t="s">
         <v>6</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D148" t="s">
         <v>27</v>
       </c>
-      <c r="E148" s="7" t="s">
+      <c r="E148" s="6" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3634,7 +3682,7 @@
       <c r="B149" t="s">
         <v>20</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D149" t="s">
@@ -3648,13 +3696,13 @@
       <c r="B150" t="s">
         <v>20</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D150" t="s">
         <v>27</v>
       </c>
-      <c r="E150" s="7" t="s">
+      <c r="E150" s="6" t="s">
         <v>288</v>
       </c>
     </row>
@@ -3665,7 +3713,7 @@
       <c r="B151" t="s">
         <v>50</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C151" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D151" t="s">
@@ -3679,7 +3727,7 @@
       <c r="B152" t="s">
         <v>50</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C152" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D152" t="s">
@@ -3693,7 +3741,7 @@
       <c r="B153" t="s">
         <v>20</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C153" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D153" t="s">
@@ -3707,13 +3755,13 @@
       <c r="B154" t="s">
         <v>6</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C154" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D154" t="s">
         <v>27</v>
       </c>
-      <c r="E154" s="7" t="s">
+      <c r="E154" s="6" t="s">
         <v>186</v>
       </c>
     </row>
@@ -3724,13 +3772,13 @@
       <c r="B155" t="s">
         <v>20</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C155" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D155" t="s">
         <v>27</v>
       </c>
-      <c r="E155" s="7" t="s">
+      <c r="E155" s="6" t="s">
         <v>289</v>
       </c>
     </row>
@@ -3741,13 +3789,13 @@
       <c r="B156" t="s">
         <v>6</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C156" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D156" t="s">
         <v>27</v>
       </c>
-      <c r="E156" s="7" t="s">
+      <c r="E156" s="6" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3758,13 +3806,13 @@
       <c r="B157" t="s">
         <v>6</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C157" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D157" t="s">
         <v>27</v>
       </c>
-      <c r="E157" s="7" t="s">
+      <c r="E157" s="6" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3775,13 +3823,13 @@
       <c r="B158" t="s">
         <v>20</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C158" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D158" t="s">
         <v>27</v>
       </c>
-      <c r="E158" s="7" t="s">
+      <c r="E158" s="6" t="s">
         <v>290</v>
       </c>
     </row>
@@ -3792,13 +3840,13 @@
       <c r="B159" t="s">
         <v>6</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C159" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D159" t="s">
         <v>27</v>
       </c>
-      <c r="E159" s="7" t="s">
+      <c r="E159" s="6" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3809,13 +3857,13 @@
       <c r="B160" t="s">
         <v>6</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C160" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D160" t="s">
         <v>27</v>
       </c>
-      <c r="E160" s="7" t="s">
+      <c r="E160" s="6" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3826,13 +3874,13 @@
       <c r="B161" t="s">
         <v>20</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C161" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D161" t="s">
         <v>27</v>
       </c>
-      <c r="E161" s="7" t="s">
+      <c r="E161" s="6" t="s">
         <v>291</v>
       </c>
     </row>
@@ -3843,13 +3891,13 @@
       <c r="B162" t="s">
         <v>6</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C162" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D162" t="s">
         <v>27</v>
       </c>
-      <c r="E162" s="7" t="s">
+      <c r="E162" s="6" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3860,13 +3908,13 @@
       <c r="B163" t="s">
         <v>6</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C163" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D163" t="s">
         <v>27</v>
       </c>
-      <c r="E163" s="7" t="s">
+      <c r="E163" s="6" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3877,13 +3925,13 @@
       <c r="B164" t="s">
         <v>20</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C164" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D164" t="s">
         <v>27</v>
       </c>
-      <c r="E164" s="7" t="s">
+      <c r="E164" s="6" t="s">
         <v>292</v>
       </c>
     </row>
@@ -3894,13 +3942,13 @@
       <c r="B165" t="s">
         <v>6</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C165" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D165" t="s">
         <v>27</v>
       </c>
-      <c r="E165" s="7" t="s">
+      <c r="E165" s="6" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3911,13 +3959,13 @@
       <c r="B166" t="s">
         <v>6</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C166" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D166" t="s">
         <v>27</v>
       </c>
-      <c r="E166" s="7" t="s">
+      <c r="E166" s="6" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3928,13 +3976,13 @@
       <c r="B167" t="s">
         <v>6</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C167" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D167" t="s">
         <v>27</v>
       </c>
-      <c r="E167" s="7" t="s">
+      <c r="E167" s="6" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3945,13 +3993,13 @@
       <c r="B168" t="s">
         <v>14</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C168" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D168" t="s">
         <v>27</v>
       </c>
-      <c r="E168" s="7" t="s">
+      <c r="E168" s="6" t="s">
         <v>293</v>
       </c>
     </row>
@@ -3962,13 +4010,13 @@
       <c r="B169" t="s">
         <v>6</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C169" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D169" t="s">
         <v>27</v>
       </c>
-      <c r="E169" s="7" t="s">
+      <c r="E169" s="6" t="s">
         <v>202</v>
       </c>
     </row>
@@ -3979,13 +4027,13 @@
       <c r="B170" t="s">
         <v>6</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C170" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D170" t="s">
         <v>27</v>
       </c>
-      <c r="E170" s="7" t="s">
+      <c r="E170" s="6" t="s">
         <v>204</v>
       </c>
     </row>
@@ -3996,13 +4044,13 @@
       <c r="B171" t="s">
         <v>6</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C171" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D171" t="s">
         <v>27</v>
       </c>
-      <c r="E171" s="7" t="s">
+      <c r="E171" s="6" t="s">
         <v>204</v>
       </c>
     </row>
@@ -4013,13 +4061,13 @@
       <c r="B172" t="s">
         <v>6</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C172" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D172" t="s">
         <v>27</v>
       </c>
-      <c r="E172" s="7" t="s">
+      <c r="E172" s="6" t="s">
         <v>204</v>
       </c>
     </row>
@@ -4030,13 +4078,13 @@
       <c r="B173" t="s">
         <v>6</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C173" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D173" t="s">
         <v>27</v>
       </c>
-      <c r="E173" s="7" t="s">
+      <c r="E173" s="6" t="s">
         <v>204</v>
       </c>
     </row>
@@ -4047,13 +4095,13 @@
       <c r="B174" t="s">
         <v>6</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C174" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D174" t="s">
         <v>27</v>
       </c>
-      <c r="E174" s="7" t="s">
+      <c r="E174" s="6" t="s">
         <v>204</v>
       </c>
     </row>
@@ -4064,7 +4112,7 @@
       <c r="B175" t="s">
         <v>20</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C175" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D175" t="s">
@@ -4078,21 +4126,21 @@
       <c r="B176" t="s">
         <v>20</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C176" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D176" t="s">
         <v>27</v>
       </c>
-      <c r="E176" s="7" t="s">
+      <c r="E176" s="6" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="4" t="s">
+      <c r="A177" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C177" s="12" t="s">
         <v>87</v>
       </c>
     </row>
@@ -4103,13 +4151,13 @@
       <c r="B178" t="s">
         <v>6</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C178" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D178" t="s">
         <v>27</v>
       </c>
-      <c r="E178" s="7" t="s">
+      <c r="E178" s="6" t="s">
         <v>204</v>
       </c>
     </row>
@@ -4120,13 +4168,13 @@
       <c r="B179" t="s">
         <v>6</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C179" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D179" t="s">
         <v>27</v>
       </c>
-      <c r="E179" s="7" t="s">
+      <c r="E179" s="6" t="s">
         <v>204</v>
       </c>
     </row>
@@ -4137,13 +4185,13 @@
       <c r="B180" t="s">
         <v>6</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C180" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D180" t="s">
         <v>27</v>
       </c>
-      <c r="E180" s="7" t="s">
+      <c r="E180" s="6" t="s">
         <v>204</v>
       </c>
     </row>
@@ -4154,21 +4202,21 @@
       <c r="B181" t="s">
         <v>6</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C181" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D181" t="s">
         <v>27</v>
       </c>
-      <c r="E181" s="7" t="s">
+      <c r="E181" s="6" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="4" t="s">
+      <c r="A182" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C182" s="12" t="s">
         <v>87</v>
       </c>
     </row>
@@ -4179,13 +4227,13 @@
       <c r="B183" t="s">
         <v>6</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C183" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D183" t="s">
         <v>27</v>
       </c>
-      <c r="E183" s="7" t="s">
+      <c r="E183" s="6" t="s">
         <v>204</v>
       </c>
     </row>
@@ -4196,13 +4244,13 @@
       <c r="B184" t="s">
         <v>6</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C184" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D184" t="s">
         <v>27</v>
       </c>
-      <c r="E184" s="7" t="s">
+      <c r="E184" s="6" t="s">
         <v>204</v>
       </c>
     </row>
@@ -4213,13 +4261,13 @@
       <c r="B185" t="s">
         <v>6</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C185" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D185" t="s">
         <v>27</v>
       </c>
-      <c r="E185" s="7" t="s">
+      <c r="E185" s="6" t="s">
         <v>204</v>
       </c>
     </row>
@@ -4230,13 +4278,13 @@
       <c r="B186" t="s">
         <v>6</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C186" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D186" t="s">
         <v>27</v>
       </c>
-      <c r="E186" s="7" t="s">
+      <c r="E186" s="6" t="s">
         <v>204</v>
       </c>
     </row>
@@ -4247,22 +4295,22 @@
       <c r="B187" t="s">
         <v>54</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C187" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D187" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="4" t="s">
+    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C188" s="5" t="s">
+      <c r="C188" s="4" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>220</v>
       </c>
@@ -4275,11 +4323,11 @@
       <c r="D189" t="s">
         <v>27</v>
       </c>
-      <c r="E189" s="7" t="s">
+      <c r="E189" s="6" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>81</v>
       </c>
@@ -4292,11 +4340,11 @@
       <c r="D190" t="s">
         <v>27</v>
       </c>
-      <c r="E190" s="7" t="s">
+      <c r="E190" s="6" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>223</v>
       </c>
@@ -4309,19 +4357,19 @@
       <c r="D191" t="s">
         <v>27</v>
       </c>
-      <c r="E191" s="7" t="s">
+      <c r="E191" s="6" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="4" t="s">
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="3" t="s">
         <v>225</v>
       </c>
       <c r="C192" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>220</v>
       </c>
@@ -4334,11 +4382,11 @@
       <c r="D193" t="s">
         <v>27</v>
       </c>
-      <c r="E193" s="7" t="s">
+      <c r="E193" s="6" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>81</v>
       </c>
@@ -4351,11 +4399,11 @@
       <c r="D194" t="s">
         <v>27</v>
       </c>
-      <c r="E194" s="9" t="s">
+      <c r="E194" s="8" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>223</v>
       </c>
@@ -4368,19 +4416,19 @@
       <c r="D195" t="s">
         <v>27</v>
       </c>
-      <c r="E195" s="7" t="s">
+      <c r="E195" s="6" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" s="4" t="s">
+    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C196" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>220</v>
       </c>
@@ -4390,11 +4438,11 @@
       <c r="C197" t="s">
         <v>219</v>
       </c>
-      <c r="E197" s="7" t="s">
+      <c r="E197" s="6" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>81</v>
       </c>
@@ -4404,11 +4452,11 @@
       <c r="C198" t="s">
         <v>219</v>
       </c>
-      <c r="E198" s="7" t="s">
+      <c r="E198" s="6" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>223</v>
       </c>
@@ -4418,19 +4466,19 @@
       <c r="C199" t="s">
         <v>219</v>
       </c>
-      <c r="E199" s="7" t="s">
+      <c r="E199" s="6" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" s="4" t="s">
+    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="3" t="s">
         <v>231</v>
       </c>
       <c r="C200" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>232</v>
       </c>
@@ -4443,11 +4491,11 @@
       <c r="D201" t="s">
         <v>27</v>
       </c>
-      <c r="E201" s="7" t="s">
+      <c r="E201" s="6" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>220</v>
       </c>
@@ -4460,11 +4508,11 @@
       <c r="D202" t="s">
         <v>27</v>
       </c>
-      <c r="E202" s="7" t="s">
+      <c r="E202" s="6" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>81</v>
       </c>
@@ -4477,11 +4525,11 @@
       <c r="D203" t="s">
         <v>27</v>
       </c>
-      <c r="E203" s="7" t="s">
+      <c r="E203" s="6" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>223</v>
       </c>
@@ -4494,11 +4542,11 @@
       <c r="D204" t="s">
         <v>27</v>
       </c>
-      <c r="E204" s="7" t="s">
+      <c r="E204" s="6" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>19</v>
       </c>
@@ -4511,11 +4559,11 @@
       <c r="D205" t="s">
         <v>27</v>
       </c>
-      <c r="E205" s="7" t="s">
+      <c r="E205" s="6" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>237</v>
       </c>
@@ -4528,12 +4576,12 @@
       <c r="D206" t="s">
         <v>27</v>
       </c>
-      <c r="E206" s="7" t="s">
+      <c r="E206" s="6" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" s="5" t="s">
+    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="4" t="s">
         <v>238</v>
       </c>
       <c r="B207" t="s">
@@ -4546,7 +4594,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>239</v>
       </c>
@@ -4559,11 +4607,11 @@
       <c r="D208" t="s">
         <v>27</v>
       </c>
-      <c r="E208" s="7" t="s">
+      <c r="E208" s="6" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>241</v>
       </c>
@@ -4576,11 +4624,11 @@
       <c r="D209" t="s">
         <v>27</v>
       </c>
-      <c r="E209" s="7" t="s">
+      <c r="E209" s="6" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>242</v>
       </c>
@@ -4594,7 +4642,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>243</v>
       </c>
@@ -4608,7 +4656,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>244</v>
       </c>
@@ -4622,15 +4670,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" s="4" t="s">
+    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="3" t="s">
         <v>245</v>
       </c>
       <c r="C213" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>246</v>
       </c>
@@ -4644,7 +4692,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>63</v>
       </c>
@@ -4658,7 +4706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>247</v>
       </c>
@@ -4671,11 +4719,11 @@
       <c r="D216" t="s">
         <v>27</v>
       </c>
-      <c r="E216" s="7" t="s">
+      <c r="E216" s="6" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>248</v>
       </c>
@@ -4689,7 +4737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>249</v>
       </c>
@@ -4703,7 +4751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>250</v>
       </c>
@@ -4717,7 +4765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>251</v>
       </c>
@@ -4731,7 +4779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>252</v>
       </c>
@@ -4745,7 +4793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>253</v>
       </c>
@@ -4759,7 +4807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>254</v>
       </c>
@@ -4772,11 +4820,11 @@
       <c r="D223" t="s">
         <v>27</v>
       </c>
-      <c r="E223" s="7" t="s">
+      <c r="E223" s="6" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>255</v>
       </c>
@@ -4790,7 +4838,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>256</v>
       </c>
@@ -4804,7 +4852,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>257</v>
       </c>
@@ -4817,12 +4865,12 @@
       <c r="D226" t="s">
         <v>27</v>
       </c>
-      <c r="E226" s="7" t="s">
+      <c r="E226" s="6" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A227" s="5" t="s">
+    <row r="227" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="4" t="s">
         <v>257</v>
       </c>
       <c r="B227" t="s">
@@ -4834,11 +4882,11 @@
       <c r="D227" t="s">
         <v>27</v>
       </c>
-      <c r="E227" s="7" t="s">
+      <c r="E227" s="6" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>261</v>
       </c>
@@ -4851,11 +4899,18 @@
       <c r="D228" t="s">
         <v>27</v>
       </c>
-      <c r="E228" s="7" t="s">
+      <c r="E228" s="6" t="s">
         <v>262</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F228">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="PATOLOGIAS NEONATALES "/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
@@ -4871,8 +4926,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.5703125"/>
-    <col min="3" max="3" width="26.7109375"/>
+    <col min="1" max="1" width="10.5703125"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
     <col min="4" max="4" width="12.7109375"/>
     <col min="5" max="1025" width="10.5703125"/>
   </cols>

--- a/archivos_recibidos/Validaciones .xlsx
+++ b/archivos_recibidos/Validaciones .xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\neocosur\archivos_recibidos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\bfree\neocosur\archivos_recibidos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -936,7 +936,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1413,8 +1413,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F228"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E112" sqref="E112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="46.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1423,7 +1423,7 @@
     <col min="2" max="2" width="10.42578125" customWidth="1"/>
     <col min="3" max="3" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.5703125" style="6"/>
+    <col min="5" max="5" width="74.85546875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1443,7 +1443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>21</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>23</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>47</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>51</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>52</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>53</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>56</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>57</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>59</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>60</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>61</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>62</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>63</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>64</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>65</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>66</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>68</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>69</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>70</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>71</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>72</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>73</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>74</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>76</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>77</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>78</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>79</v>
       </c>
@@ -2301,7 +2301,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>81</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>83</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>84</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>88</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>100</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>106</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>109</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>112</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>118</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>118</v>
       </c>
@@ -2893,7 +2893,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>121</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>123</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>125</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>130</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>137</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>139</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>140</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>146</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>149</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>152</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>156</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>161</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>165</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>168</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>172</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>181</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>187</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>190</v>
       </c>
@@ -3867,7 +3867,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>193</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>196</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>200</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>210</v>
       </c>
@@ -4302,7 +4302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>218</v>
       </c>
@@ -4310,7 +4310,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>220</v>
       </c>
@@ -4327,7 +4327,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>81</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>223</v>
       </c>
@@ -4361,7 +4361,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>225</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>220</v>
       </c>
@@ -4386,7 +4386,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>81</v>
       </c>
@@ -4403,7 +4403,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>223</v>
       </c>
@@ -4420,7 +4420,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>228</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>220</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>81</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>223</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>231</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>232</v>
       </c>
@@ -4495,7 +4495,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>220</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>81</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>223</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>19</v>
       </c>
@@ -4563,7 +4563,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>237</v>
       </c>
@@ -4580,7 +4580,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
         <v>238</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>239</v>
       </c>
@@ -4611,7 +4611,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>241</v>
       </c>
@@ -4628,7 +4628,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>242</v>
       </c>
@@ -4642,7 +4642,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>243</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>244</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>245</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>246</v>
       </c>
@@ -4692,7 +4692,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>63</v>
       </c>
@@ -4706,7 +4706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>247</v>
       </c>
@@ -4723,7 +4723,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>248</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>249</v>
       </c>
@@ -4751,7 +4751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>250</v>
       </c>
@@ -4765,7 +4765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>251</v>
       </c>
@@ -4779,7 +4779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>252</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>253</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>254</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>255</v>
       </c>
@@ -4838,7 +4838,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>256</v>
       </c>
@@ -4852,7 +4852,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>257</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
         <v>257</v>
       </c>
@@ -4886,7 +4886,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>261</v>
       </c>

--- a/archivos_recibidos/Validaciones .xlsx
+++ b/archivos_recibidos/Validaciones .xlsx
@@ -1410,17 +1410,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E112" sqref="E112"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="46.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="74.85546875" style="6" customWidth="1"/>
@@ -1444,28 +1443,31 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
+      <c r="A2" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
+      <c r="A3" t="s">
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -1473,13 +1475,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>7</v>
+        <v>20</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -1487,27 +1489,27 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
+      <c r="A6" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>7</v>
+        <v>20</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -1515,27 +1517,27 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>7</v>
+      <c r="C7" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>16</v>
+      <c r="A8" t="s">
+        <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>7</v>
+        <v>20</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -1543,168 +1545,174 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>7</v>
+      <c r="C9" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>299</v>
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>300</v>
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>300</v>
+      <c r="A12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>22</v>
+        <v>6</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>22</v>
+        <v>6</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>22</v>
+        <v>6</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="D15" t="s">
         <v>27</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>22</v>
+      <c r="C16" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
+      <c r="A17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" t="s">
-        <v>20</v>
+      <c r="D17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>268</v>
+      <c r="D18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>22</v>
@@ -1715,7 +1723,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -1727,9 +1735,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
@@ -1738,12 +1746,15 @@
         <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
@@ -1757,10 +1768,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>22</v>
@@ -1769,9 +1780,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -1783,12 +1794,12 @@
         <v>27</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>37</v>
+        <v>268</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -1797,15 +1808,12 @@
         <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -1814,15 +1822,12 @@
         <v>22</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>20</v>
@@ -1831,15 +1836,12 @@
         <v>22</v>
       </c>
       <c r="D27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>269</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>20</v>
@@ -1848,15 +1850,12 @@
         <v>22</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
         <v>20</v>
@@ -1870,7 +1869,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
         <v>20</v>
@@ -1879,12 +1878,15 @@
         <v>22</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
         <v>20</v>
@@ -1893,12 +1895,15 @@
         <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
         <v>20</v>
@@ -1907,12 +1912,15 @@
         <v>22</v>
       </c>
       <c r="D32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
         <v>20</v>
@@ -1921,29 +1929,35 @@
         <v>22</v>
       </c>
       <c r="D33" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D34" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>22</v>
@@ -1954,10 +1968,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>22</v>
@@ -1968,10 +1982,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>22</v>
@@ -1979,13 +1993,10 @@
       <c r="D37" t="s">
         <v>8</v>
       </c>
-      <c r="E37" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B38" t="s">
         <v>20</v>
@@ -1994,15 +2005,12 @@
         <v>22</v>
       </c>
       <c r="D38" t="s">
-        <v>27</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B39" t="s">
         <v>20</v>
@@ -2011,32 +2019,26 @@
         <v>22</v>
       </c>
       <c r="D39" t="s">
-        <v>27</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D40" t="s">
-        <v>27</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>60</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>51</v>
       </c>
       <c r="B41" t="s">
         <v>50</v>
@@ -2050,7 +2052,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B42" t="s">
         <v>50</v>
@@ -2064,10 +2066,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>22</v>
@@ -2075,41 +2077,50 @@
       <c r="D43" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E43" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D44" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D45" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>65</v>
+        <v>27</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>22</v>
@@ -2118,35 +2129,32 @@
         <v>27</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>55</v>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>67</v>
+        <v>50</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="D48" t="s">
         <v>8</v>
@@ -2154,13 +2162,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B49" t="s">
-        <v>20</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>67</v>
+        <v>50</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="D49" t="s">
         <v>8</v>
@@ -2168,137 +2176,131 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>67</v>
+        <v>50</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="D50" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>71</v>
+      <c r="A51" t="s">
+        <v>64</v>
       </c>
       <c r="B51" t="s">
-        <v>20</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>67</v>
+        <v>50</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="D51" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>72</v>
+    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B52" t="s">
-        <v>14</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>67</v>
+        <v>50</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="D52" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>73</v>
-      </c>
-      <c r="B53" t="s">
-        <v>20</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D53" t="s">
-        <v>8</v>
+      <c r="A53" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>74</v>
+        <v>220</v>
       </c>
       <c r="B54" t="s">
         <v>6</v>
       </c>
-      <c r="C54" s="11" t="s">
-        <v>67</v>
+      <c r="C54" t="s">
+        <v>219</v>
       </c>
       <c r="D54" t="s">
         <v>27</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>75</v>
+        <v>221</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B55" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="11" t="s">
-        <v>67</v>
+      <c r="C55" t="s">
+        <v>219</v>
       </c>
       <c r="D55" t="s">
         <v>27</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>75</v>
+        <v>222</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>223</v>
       </c>
       <c r="B56" t="s">
-        <v>20</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>67</v>
+        <v>6</v>
+      </c>
+      <c r="C56" t="s">
+        <v>219</v>
       </c>
       <c r="D56" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>78</v>
-      </c>
-      <c r="B57" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D57" t="s">
-        <v>8</v>
+      <c r="A57" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C57" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="B58" t="s">
         <v>6</v>
       </c>
-      <c r="C58" s="11" t="s">
-        <v>67</v>
+      <c r="C58" t="s">
+        <v>219</v>
       </c>
       <c r="D58" t="s">
         <v>27</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>80</v>
+        <v>226</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2308,188 +2310,182 @@
       <c r="B59" t="s">
         <v>6</v>
       </c>
-      <c r="C59" s="11" t="s">
-        <v>67</v>
+      <c r="C59" t="s">
+        <v>219</v>
       </c>
       <c r="D59" t="s">
         <v>27</v>
       </c>
-      <c r="E59" s="6" t="s">
-        <v>82</v>
+      <c r="E59" s="8" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>83</v>
+        <v>223</v>
       </c>
       <c r="B60" t="s">
         <v>6</v>
       </c>
-      <c r="C60" s="11" t="s">
-        <v>67</v>
+      <c r="C60" t="s">
+        <v>219</v>
       </c>
       <c r="D60" t="s">
         <v>27</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>84</v>
-      </c>
-      <c r="B61" t="s">
-        <v>20</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D61" t="s">
-        <v>27</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>85</v>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C61" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>86</v>
+        <v>220</v>
       </c>
       <c r="B62" t="s">
-        <v>20</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D62" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="C62" t="s">
+        <v>219</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B63" t="s">
-        <v>20</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D63" t="s">
-        <v>27</v>
+        <v>6</v>
+      </c>
+      <c r="C63" t="s">
+        <v>219</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>273</v>
+        <v>230</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>89</v>
+        <v>223</v>
       </c>
       <c r="B64" t="s">
-        <v>14</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D64" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C64" t="s">
+        <v>219</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>90</v>
-      </c>
-      <c r="B65" t="s">
-        <v>20</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D65" t="s">
-        <v>8</v>
+      <c r="A65" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C65" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>91</v>
+        <v>232</v>
       </c>
       <c r="B66" t="s">
-        <v>20</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>87</v>
+        <v>6</v>
+      </c>
+      <c r="C66" t="s">
+        <v>219</v>
       </c>
       <c r="D66" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>92</v>
+        <v>220</v>
       </c>
       <c r="B67" t="s">
-        <v>20</v>
-      </c>
-      <c r="C67" s="12" t="s">
-        <v>87</v>
+        <v>6</v>
+      </c>
+      <c r="C67" t="s">
+        <v>219</v>
       </c>
       <c r="D67" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B68" t="s">
-        <v>20</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>87</v>
+        <v>6</v>
+      </c>
+      <c r="C68" t="s">
+        <v>219</v>
       </c>
       <c r="D68" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>94</v>
+        <v>223</v>
       </c>
       <c r="B69" t="s">
-        <v>20</v>
-      </c>
-      <c r="C69" s="12" t="s">
-        <v>87</v>
+        <v>6</v>
+      </c>
+      <c r="C69" t="s">
+        <v>219</v>
       </c>
       <c r="D69" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>95</v>
+      <c r="A70" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B70" t="s">
-        <v>14</v>
-      </c>
-      <c r="C70" s="12" t="s">
-        <v>87</v>
+        <v>6</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="D70" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>96</v>
+      <c r="A71" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B71" t="s">
-        <v>20</v>
-      </c>
-      <c r="C71" s="12" t="s">
-        <v>87</v>
+        <v>6</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="D71" t="s">
         <v>8</v>
@@ -2497,13 +2493,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="B72" t="s">
-        <v>20</v>
-      </c>
-      <c r="C72" s="12" t="s">
-        <v>87</v>
+        <v>6</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="D72" t="s">
         <v>8</v>
@@ -2511,13 +2507,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>20</v>
-      </c>
-      <c r="C73" s="12" t="s">
-        <v>87</v>
+        <v>12</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="D73" t="s">
         <v>8</v>
@@ -2525,44 +2521,41 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="B74" t="s">
-        <v>20</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>87</v>
+        <v>14</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="D74" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="B75" t="s">
-        <v>20</v>
-      </c>
-      <c r="C75" s="12" t="s">
-        <v>87</v>
+        <v>14</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="D75" t="s">
-        <v>27</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>274</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>101</v>
+      <c r="A76" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B76" t="s">
-        <v>50</v>
-      </c>
-      <c r="C76" s="12" t="s">
-        <v>87</v>
+        <v>6</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="D76" t="s">
         <v>8</v>
@@ -2570,170 +2563,197 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="B77" t="s">
-        <v>50</v>
-      </c>
-      <c r="C77" s="12" t="s">
-        <v>87</v>
+        <v>6</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="D77" t="s">
-        <v>103</v>
+        <v>8</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>104</v>
-      </c>
-      <c r="B78" t="s">
-        <v>50</v>
-      </c>
-      <c r="C78" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D78" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>105</v>
+        <v>257</v>
       </c>
       <c r="B79" t="s">
-        <v>20</v>
-      </c>
-      <c r="C79" s="12" t="s">
-        <v>87</v>
+        <v>6</v>
+      </c>
+      <c r="C79" t="s">
+        <v>258</v>
       </c>
       <c r="D79" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>106</v>
+        <v>27</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>257</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
-      </c>
-      <c r="C80" s="12" t="s">
-        <v>87</v>
+        <v>14</v>
+      </c>
+      <c r="C80" t="s">
+        <v>258</v>
       </c>
       <c r="D80" t="s">
         <v>27</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>108</v>
+        <v>261</v>
       </c>
       <c r="B81" t="s">
-        <v>20</v>
-      </c>
-      <c r="C81" s="12" t="s">
-        <v>87</v>
+        <v>14</v>
+      </c>
+      <c r="C81" t="s">
+        <v>258</v>
       </c>
       <c r="D81" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="B82" t="s">
         <v>20</v>
       </c>
-      <c r="C82" s="12" t="s">
-        <v>87</v>
+      <c r="C82" t="s">
+        <v>141</v>
       </c>
       <c r="D82" t="s">
         <v>27</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="B83" t="s">
-        <v>50</v>
-      </c>
-      <c r="C83" s="12" t="s">
-        <v>87</v>
+        <v>12</v>
+      </c>
+      <c r="C83" t="s">
+        <v>235</v>
       </c>
       <c r="D83" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>111</v>
+        <v>237</v>
       </c>
       <c r="B84" t="s">
-        <v>50</v>
-      </c>
-      <c r="C84" s="12" t="s">
-        <v>87</v>
+        <v>14</v>
+      </c>
+      <c r="C84" t="s">
+        <v>235</v>
       </c>
       <c r="D84" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>112</v>
+        <v>27</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>238</v>
       </c>
       <c r="B85" t="s">
         <v>20</v>
       </c>
-      <c r="C85" s="12" t="s">
-        <v>87</v>
+      <c r="C85" t="s">
+        <v>235</v>
       </c>
       <c r="D85" t="s">
-        <v>27</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>276</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C86" s="12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>239</v>
+      </c>
+      <c r="B86" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" t="s">
+        <v>235</v>
+      </c>
+      <c r="D86" t="s">
+        <v>27</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>114</v>
+        <v>241</v>
       </c>
       <c r="B87" t="s">
         <v>20</v>
       </c>
-      <c r="C87" s="12" t="s">
-        <v>87</v>
+      <c r="C87" t="s">
+        <v>235</v>
       </c>
       <c r="D87" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>115</v>
+        <v>242</v>
       </c>
       <c r="B88" t="s">
-        <v>14</v>
-      </c>
-      <c r="C88" s="12" t="s">
-        <v>87</v>
+        <v>54</v>
+      </c>
+      <c r="C88" t="s">
+        <v>235</v>
       </c>
       <c r="D88" t="s">
         <v>8</v>
@@ -2741,13 +2761,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>116</v>
+        <v>243</v>
       </c>
       <c r="B89" t="s">
         <v>14</v>
       </c>
-      <c r="C89" s="12" t="s">
-        <v>87</v>
+      <c r="C89" t="s">
+        <v>235</v>
       </c>
       <c r="D89" t="s">
         <v>8</v>
@@ -2755,80 +2775,80 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>117</v>
+        <v>244</v>
       </c>
       <c r="B90" t="s">
-        <v>14</v>
-      </c>
-      <c r="C90" s="12" t="s">
-        <v>87</v>
+        <v>54</v>
+      </c>
+      <c r="C90" t="s">
+        <v>235</v>
       </c>
       <c r="D90" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>118</v>
-      </c>
-      <c r="B91" t="s">
-        <v>20</v>
-      </c>
-      <c r="C91" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D91" t="s">
-        <v>27</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>277</v>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C91" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>119</v>
+        <v>246</v>
       </c>
       <c r="B92" t="s">
-        <v>14</v>
-      </c>
-      <c r="C92" s="12" t="s">
-        <v>87</v>
+        <v>50</v>
+      </c>
+      <c r="C92" t="s">
+        <v>235</v>
       </c>
       <c r="D92" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C93" s="12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>63</v>
+      </c>
+      <c r="B93" t="s">
+        <v>50</v>
+      </c>
+      <c r="C93" t="s">
+        <v>235</v>
+      </c>
+      <c r="D93" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>114</v>
+        <v>247</v>
       </c>
       <c r="B94" t="s">
-        <v>20</v>
-      </c>
-      <c r="C94" s="12" t="s">
-        <v>87</v>
+        <v>50</v>
+      </c>
+      <c r="C94" t="s">
+        <v>235</v>
       </c>
       <c r="D94" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>115</v>
+        <v>248</v>
       </c>
       <c r="B95" t="s">
-        <v>14</v>
-      </c>
-      <c r="C95" s="12" t="s">
-        <v>87</v>
+        <v>50</v>
+      </c>
+      <c r="C95" t="s">
+        <v>235</v>
       </c>
       <c r="D95" t="s">
         <v>8</v>
@@ -2836,13 +2856,13 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>116</v>
+        <v>249</v>
       </c>
       <c r="B96" t="s">
-        <v>14</v>
-      </c>
-      <c r="C96" s="12" t="s">
-        <v>87</v>
+        <v>50</v>
+      </c>
+      <c r="C96" t="s">
+        <v>235</v>
       </c>
       <c r="D96" t="s">
         <v>8</v>
@@ -2850,44 +2870,41 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>117</v>
+        <v>250</v>
       </c>
       <c r="B97" t="s">
-        <v>14</v>
-      </c>
-      <c r="C97" s="12" t="s">
-        <v>87</v>
+        <v>50</v>
+      </c>
+      <c r="C97" t="s">
+        <v>235</v>
       </c>
       <c r="D97" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>118</v>
+        <v>251</v>
       </c>
       <c r="B98" t="s">
-        <v>20</v>
-      </c>
-      <c r="C98" s="12" t="s">
-        <v>87</v>
+        <v>50</v>
+      </c>
+      <c r="C98" t="s">
+        <v>235</v>
       </c>
       <c r="D98" t="s">
-        <v>27</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>278</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>119</v>
+        <v>252</v>
       </c>
       <c r="B99" t="s">
-        <v>14</v>
-      </c>
-      <c r="C99" s="12" t="s">
-        <v>87</v>
+        <v>50</v>
+      </c>
+      <c r="C99" t="s">
+        <v>235</v>
       </c>
       <c r="D99" t="s">
         <v>8</v>
@@ -2895,75 +2912,69 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>121</v>
+        <v>253</v>
       </c>
       <c r="B100" t="s">
-        <v>6</v>
-      </c>
-      <c r="C100" s="12" t="s">
-        <v>87</v>
+        <v>50</v>
+      </c>
+      <c r="C100" t="s">
+        <v>235</v>
       </c>
       <c r="D100" t="s">
-        <v>27</v>
-      </c>
-      <c r="E100" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>122</v>
+        <v>254</v>
       </c>
       <c r="B101" t="s">
-        <v>20</v>
-      </c>
-      <c r="C101" s="12" t="s">
-        <v>87</v>
+        <v>50</v>
+      </c>
+      <c r="C101" t="s">
+        <v>235</v>
       </c>
       <c r="D101" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>123</v>
+        <v>255</v>
       </c>
       <c r="B102" t="s">
-        <v>20</v>
-      </c>
-      <c r="C102" s="12" t="s">
-        <v>87</v>
+        <v>6</v>
+      </c>
+      <c r="C102" t="s">
+        <v>235</v>
       </c>
       <c r="D102" t="s">
-        <v>27</v>
-      </c>
-      <c r="E102" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>125</v>
+        <v>256</v>
       </c>
       <c r="B103" t="s">
-        <v>14</v>
-      </c>
-      <c r="C103" s="12" t="s">
-        <v>87</v>
+        <v>54</v>
+      </c>
+      <c r="C103" t="s">
+        <v>235</v>
       </c>
       <c r="D103" t="s">
-        <v>27</v>
-      </c>
-      <c r="E103" s="6" t="s">
-        <v>279</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="B104" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C104" s="12" t="s">
         <v>87</v>
@@ -2972,40 +2983,40 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="B105" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C105" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D105" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="B106" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C106" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D106" t="s">
-        <v>27</v>
-      </c>
-      <c r="E106" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="B107" t="s">
         <v>20</v>
@@ -3014,83 +3025,68 @@
         <v>87</v>
       </c>
       <c r="D107" t="s">
-        <v>27</v>
-      </c>
-      <c r="E107" s="6" t="s">
-        <v>131</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="B108" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C108" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D108" t="s">
-        <v>27</v>
-      </c>
-      <c r="E108" s="6" t="s">
-        <v>133</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="B109" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C109" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D109" t="s">
-        <v>135</v>
-      </c>
-      <c r="E109" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="B110" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C110" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D110" t="s">
-        <v>27</v>
-      </c>
-      <c r="E110" s="6" t="s">
-        <v>279</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C111" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D111" t="s">
-        <v>27</v>
-      </c>
-      <c r="E111" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="B112" t="s">
         <v>14</v>
@@ -3099,66 +3095,54 @@
         <v>87</v>
       </c>
       <c r="D112" t="s">
-        <v>27</v>
-      </c>
-      <c r="E112" s="6" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="B113" t="s">
         <v>20</v>
       </c>
-      <c r="C113" t="s">
-        <v>141</v>
+      <c r="C113" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="D113" t="s">
-        <v>27</v>
-      </c>
-      <c r="E113" s="6" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="B114" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C114" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D114" t="s">
-        <v>27</v>
-      </c>
-      <c r="E114" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="B115" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C115" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D115" t="s">
-        <v>27</v>
-      </c>
-      <c r="E115" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="B116" t="s">
         <v>20</v>
@@ -3167,18 +3151,15 @@
         <v>87</v>
       </c>
       <c r="D116" t="s">
-        <v>27</v>
-      </c>
-      <c r="E116" s="6" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="B117" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C117" s="12" t="s">
         <v>87</v>
@@ -3187,49 +3168,43 @@
         <v>27</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="B118" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C118" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D118" t="s">
-        <v>27</v>
-      </c>
-      <c r="E118" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="B119" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C119" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D119" t="s">
-        <v>27</v>
-      </c>
-      <c r="E119" s="6" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="B120" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C120" s="12" t="s">
         <v>87</v>
@@ -3237,16 +3212,13 @@
       <c r="D120" t="s">
         <v>8</v>
       </c>
-      <c r="E120" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C121" s="12" t="s">
         <v>87</v>
@@ -3254,16 +3226,13 @@
       <c r="D121" t="s">
         <v>8</v>
       </c>
-      <c r="E121" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="B122" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C122" s="12" t="s">
         <v>87</v>
@@ -3272,15 +3241,12 @@
         <v>27</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="F122" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="B123" t="s">
         <v>20</v>
@@ -3289,15 +3255,12 @@
         <v>87</v>
       </c>
       <c r="D123" t="s">
-        <v>27</v>
-      </c>
-      <c r="E123" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="B124" t="s">
         <v>20</v>
@@ -3309,12 +3272,12 @@
         <v>27</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="B125" t="s">
         <v>50</v>
@@ -3323,18 +3286,15 @@
         <v>87</v>
       </c>
       <c r="D125" t="s">
-        <v>27</v>
-      </c>
-      <c r="E125" s="6" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>157</v>
+        <v>111</v>
       </c>
       <c r="B126" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C126" s="12" t="s">
         <v>87</v>
@@ -3343,9 +3303,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>158</v>
+        <v>112</v>
       </c>
       <c r="B127" t="s">
         <v>20</v>
@@ -3354,29 +3314,26 @@
         <v>87</v>
       </c>
       <c r="D127" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>159</v>
-      </c>
-      <c r="B128" t="s">
-        <v>50</v>
+        <v>27</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="C128" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="D128" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>160</v>
+        <v>114</v>
       </c>
       <c r="B129" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C129" s="12" t="s">
         <v>87</v>
@@ -3385,60 +3342,51 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>161</v>
+        <v>115</v>
       </c>
       <c r="B130" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C130" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D130" t="s">
-        <v>27</v>
-      </c>
-      <c r="E130" s="6" t="s">
-        <v>285</v>
+        <v>8</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="B131" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C131" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D131" t="s">
-        <v>27</v>
-      </c>
-      <c r="E131" s="6" t="s">
-        <v>145</v>
+        <v>8</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>163</v>
+        <v>117</v>
       </c>
       <c r="B132" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C132" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D132" t="s">
-        <v>27</v>
-      </c>
-      <c r="E132" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>164</v>
+        <v>118</v>
       </c>
       <c r="B133" t="s">
         <v>20</v>
@@ -3447,46 +3395,40 @@
         <v>87</v>
       </c>
       <c r="D133" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="B134" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C134" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D134" t="s">
-        <v>27</v>
-      </c>
-      <c r="E134" s="6" t="s">
-        <v>286</v>
+        <v>8</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>157</v>
-      </c>
-      <c r="B135" t="s">
-        <v>50</v>
+      <c r="A135" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="C135" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="D135" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="B136" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C136" s="12" t="s">
         <v>87</v>
@@ -3497,10 +3439,10 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="B137" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C137" s="12" t="s">
         <v>87</v>
@@ -3511,24 +3453,21 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>168</v>
+        <v>116</v>
       </c>
       <c r="B138" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C138" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D138" t="s">
-        <v>27</v>
-      </c>
-      <c r="E138" s="6" t="s">
-        <v>169</v>
+        <v>8</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>170</v>
+        <v>117</v>
       </c>
       <c r="B139" t="s">
         <v>14</v>
@@ -3537,12 +3476,12 @@
         <v>87</v>
       </c>
       <c r="D139" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>171</v>
+        <v>118</v>
       </c>
       <c r="B140" t="s">
         <v>20</v>
@@ -3551,46 +3490,49 @@
         <v>87</v>
       </c>
       <c r="D140" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="E140" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
       <c r="B141" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C141" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D141" t="s">
-        <v>27</v>
-      </c>
-      <c r="E141" s="6" t="s">
-        <v>287</v>
+        <v>8</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="B142" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="C142" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D142" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>173</v>
+        <v>122</v>
       </c>
       <c r="B143" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C143" s="12" t="s">
         <v>87</v>
@@ -3599,9 +3541,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>174</v>
+        <v>123</v>
       </c>
       <c r="B144" t="s">
         <v>20</v>
@@ -3610,46 +3552,49 @@
         <v>87</v>
       </c>
       <c r="D144" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="E144" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="B145" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C145" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D145" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="E145" s="6" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>176</v>
+        <v>126</v>
       </c>
       <c r="B146" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C146" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D146" t="s">
-        <v>27</v>
-      </c>
-      <c r="E146" s="6" t="s">
-        <v>177</v>
+        <v>8</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>178</v>
+        <v>127</v>
       </c>
       <c r="B147" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C147" s="12" t="s">
         <v>87</v>
@@ -3660,7 +3605,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>179</v>
+        <v>128</v>
       </c>
       <c r="B148" t="s">
         <v>6</v>
@@ -3672,12 +3617,12 @@
         <v>27</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="B149" t="s">
         <v>20</v>
@@ -3686,15 +3631,18 @@
         <v>87</v>
       </c>
       <c r="D149" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="E149" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="B150" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C150" s="12" t="s">
         <v>87</v>
@@ -3703,57 +3651,66 @@
         <v>27</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>288</v>
+        <v>133</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
       <c r="B151" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="C151" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D151" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="E151" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>183</v>
+        <v>137</v>
       </c>
       <c r="B152" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C152" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D152" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="E152" s="6" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>184</v>
+        <v>138</v>
       </c>
       <c r="B153" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C153" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D153" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="E153" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>185</v>
+        <v>139</v>
       </c>
       <c r="B154" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C154" s="12" t="s">
         <v>87</v>
@@ -3762,15 +3719,15 @@
         <v>27</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>187</v>
+        <v>142</v>
       </c>
       <c r="B155" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C155" s="12" t="s">
         <v>87</v>
@@ -3779,12 +3736,12 @@
         <v>27</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>289</v>
+        <v>143</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="B156" t="s">
         <v>6</v>
@@ -3796,15 +3753,15 @@
         <v>27</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>189</v>
+        <v>146</v>
       </c>
       <c r="B157" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C157" s="12" t="s">
         <v>87</v>
@@ -3813,29 +3770,29 @@
         <v>27</v>
       </c>
       <c r="E157" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>147</v>
+      </c>
+      <c r="B158" t="s">
+        <v>6</v>
+      </c>
+      <c r="C158" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D158" t="s">
+        <v>27</v>
+      </c>
+      <c r="E158" s="6" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>190</v>
-      </c>
-      <c r="B158" t="s">
-        <v>20</v>
-      </c>
-      <c r="C158" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D158" t="s">
-        <v>27</v>
-      </c>
-      <c r="E158" s="6" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>191</v>
+        <v>148</v>
       </c>
       <c r="B159" t="s">
         <v>6</v>
@@ -3847,15 +3804,15 @@
         <v>27</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>192</v>
+        <v>149</v>
       </c>
       <c r="B160" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C160" s="12" t="s">
         <v>87</v>
@@ -3864,29 +3821,29 @@
         <v>27</v>
       </c>
       <c r="E160" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>150</v>
+      </c>
+      <c r="B161" t="s">
+        <v>6</v>
+      </c>
+      <c r="C161" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D161" t="s">
+        <v>8</v>
+      </c>
+      <c r="E161" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>193</v>
-      </c>
-      <c r="B161" t="s">
-        <v>20</v>
-      </c>
-      <c r="C161" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D161" t="s">
-        <v>27</v>
-      </c>
-      <c r="E161" s="6" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>194</v>
+        <v>151</v>
       </c>
       <c r="B162" t="s">
         <v>6</v>
@@ -3895,18 +3852,18 @@
         <v>87</v>
       </c>
       <c r="D162" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
       <c r="B163" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C163" s="12" t="s">
         <v>87</v>
@@ -3915,32 +3872,35 @@
         <v>27</v>
       </c>
       <c r="E163" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="F163" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>154</v>
+      </c>
+      <c r="B164" t="s">
+        <v>20</v>
+      </c>
+      <c r="C164" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D164" t="s">
+        <v>27</v>
+      </c>
+      <c r="E164" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>196</v>
-      </c>
-      <c r="B164" t="s">
-        <v>20</v>
-      </c>
-      <c r="C164" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D164" t="s">
-        <v>27</v>
-      </c>
-      <c r="E164" s="6" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="B165" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C165" s="12" t="s">
         <v>87</v>
@@ -3949,15 +3909,15 @@
         <v>27</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="B166" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C166" s="12" t="s">
         <v>87</v>
@@ -3966,148 +3926,133 @@
         <v>27</v>
       </c>
       <c r="E166" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>157</v>
+      </c>
+      <c r="B167" t="s">
+        <v>20</v>
+      </c>
+      <c r="C167" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D167" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>158</v>
+      </c>
+      <c r="B168" t="s">
+        <v>20</v>
+      </c>
+      <c r="C168" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D168" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>159</v>
+      </c>
+      <c r="B169" t="s">
+        <v>50</v>
+      </c>
+      <c r="C169" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D169" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>160</v>
+      </c>
+      <c r="B170" t="s">
+        <v>50</v>
+      </c>
+      <c r="C170" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D170" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>161</v>
+      </c>
+      <c r="B171" t="s">
+        <v>20</v>
+      </c>
+      <c r="C171" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D171" t="s">
+        <v>27</v>
+      </c>
+      <c r="E171" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>162</v>
+      </c>
+      <c r="B172" t="s">
+        <v>20</v>
+      </c>
+      <c r="C172" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D172" t="s">
+        <v>27</v>
+      </c>
+      <c r="E172" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>199</v>
-      </c>
-      <c r="B167" t="s">
-        <v>6</v>
-      </c>
-      <c r="C167" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D167" t="s">
-        <v>27</v>
-      </c>
-      <c r="E167" s="6" t="s">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>163</v>
+      </c>
+      <c r="B173" t="s">
+        <v>20</v>
+      </c>
+      <c r="C173" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D173" t="s">
+        <v>27</v>
+      </c>
+      <c r="E173" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>200</v>
-      </c>
-      <c r="B168" t="s">
-        <v>14</v>
-      </c>
-      <c r="C168" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D168" t="s">
-        <v>27</v>
-      </c>
-      <c r="E168" s="6" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>201</v>
-      </c>
-      <c r="B169" t="s">
-        <v>6</v>
-      </c>
-      <c r="C169" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D169" t="s">
-        <v>27</v>
-      </c>
-      <c r="E169" s="6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>203</v>
-      </c>
-      <c r="B170" t="s">
-        <v>6</v>
-      </c>
-      <c r="C170" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D170" t="s">
-        <v>27</v>
-      </c>
-      <c r="E170" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>205</v>
-      </c>
-      <c r="B171" t="s">
-        <v>6</v>
-      </c>
-      <c r="C171" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D171" t="s">
-        <v>27</v>
-      </c>
-      <c r="E171" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>206</v>
-      </c>
-      <c r="B172" t="s">
-        <v>6</v>
-      </c>
-      <c r="C172" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D172" t="s">
-        <v>27</v>
-      </c>
-      <c r="E172" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>207</v>
-      </c>
-      <c r="B173" t="s">
-        <v>6</v>
-      </c>
-      <c r="C173" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D173" t="s">
-        <v>27</v>
-      </c>
-      <c r="E173" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>208</v>
+        <v>164</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C174" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D174" t="s">
-        <v>27</v>
-      </c>
-      <c r="E174" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>209</v>
+        <v>165</v>
       </c>
       <c r="B175" t="s">
         <v>20</v>
@@ -4116,54 +4061,57 @@
         <v>87</v>
       </c>
       <c r="D175" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="E175" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>210</v>
+        <v>157</v>
       </c>
       <c r="B176" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C176" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D176" t="s">
-        <v>27</v>
-      </c>
-      <c r="E176" s="6" t="s">
-        <v>294</v>
+        <v>8</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="3" t="s">
-        <v>211</v>
+      <c r="A177" t="s">
+        <v>166</v>
+      </c>
+      <c r="B177" t="s">
+        <v>50</v>
       </c>
       <c r="C177" s="12" t="s">
         <v>87</v>
+      </c>
+      <c r="D177" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>212</v>
+        <v>167</v>
       </c>
       <c r="B178" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C178" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D178" t="s">
-        <v>27</v>
-      </c>
-      <c r="E178" s="6" t="s">
-        <v>204</v>
+        <v>8</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="B179" t="s">
         <v>6</v>
@@ -4175,741 +4123,790 @@
         <v>27</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>204</v>
+        <v>169</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>214</v>
+        <v>170</v>
       </c>
       <c r="B180" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C180" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D180" t="s">
         <v>27</v>
-      </c>
-      <c r="E180" s="6" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>215</v>
+        <v>171</v>
       </c>
       <c r="B181" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C181" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D181" t="s">
-        <v>27</v>
-      </c>
-      <c r="E181" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="3" t="s">
-        <v>216</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>172</v>
+      </c>
+      <c r="B182" t="s">
+        <v>20</v>
       </c>
       <c r="C182" s="12" t="s">
         <v>87</v>
+      </c>
+      <c r="D182" t="s">
+        <v>27</v>
+      </c>
+      <c r="E182" s="6" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>212</v>
+        <v>157</v>
       </c>
       <c r="B183" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C183" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D183" t="s">
-        <v>27</v>
-      </c>
-      <c r="E183" s="6" t="s">
-        <v>204</v>
+        <v>8</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>213</v>
+        <v>173</v>
       </c>
       <c r="B184" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C184" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D184" t="s">
-        <v>27</v>
-      </c>
-      <c r="E184" s="6" t="s">
-        <v>204</v>
+        <v>8</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>214</v>
+        <v>174</v>
       </c>
       <c r="B185" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C185" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D185" t="s">
-        <v>27</v>
-      </c>
-      <c r="E185" s="6" t="s">
-        <v>204</v>
+        <v>8</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>215</v>
+        <v>175</v>
       </c>
       <c r="B186" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C186" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D186" t="s">
-        <v>27</v>
-      </c>
-      <c r="E186" s="6" t="s">
-        <v>204</v>
+        <v>8</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>217</v>
+        <v>176</v>
       </c>
       <c r="B187" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="C187" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D187" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="E187" s="6" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C188" s="4" t="s">
-        <v>219</v>
+      <c r="A188" t="s">
+        <v>178</v>
+      </c>
+      <c r="B188" t="s">
+        <v>20</v>
+      </c>
+      <c r="C188" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D188" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="B189" t="s">
         <v>6</v>
       </c>
-      <c r="C189" t="s">
-        <v>219</v>
+      <c r="C189" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="D189" t="s">
         <v>27</v>
       </c>
       <c r="E189" s="6" t="s">
-        <v>221</v>
+        <v>177</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>81</v>
+        <v>180</v>
       </c>
       <c r="B190" t="s">
-        <v>6</v>
-      </c>
-      <c r="C190" t="s">
-        <v>219</v>
+        <v>20</v>
+      </c>
+      <c r="C190" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="D190" t="s">
-        <v>27</v>
-      </c>
-      <c r="E190" s="6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
       <c r="B191" t="s">
-        <v>6</v>
-      </c>
-      <c r="C191" t="s">
-        <v>219</v>
+        <v>20</v>
+      </c>
+      <c r="C191" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="D191" t="s">
         <v>27</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>224</v>
+        <v>288</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C192" t="s">
-        <v>219</v>
+      <c r="A192" t="s">
+        <v>182</v>
+      </c>
+      <c r="B192" t="s">
+        <v>50</v>
+      </c>
+      <c r="C192" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D192" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="B193" t="s">
-        <v>6</v>
-      </c>
-      <c r="C193" t="s">
-        <v>219</v>
+        <v>50</v>
+      </c>
+      <c r="C193" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="D193" t="s">
-        <v>27</v>
-      </c>
-      <c r="E193" s="6" t="s">
-        <v>226</v>
+        <v>8</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>81</v>
+        <v>184</v>
       </c>
       <c r="B194" t="s">
-        <v>6</v>
-      </c>
-      <c r="C194" t="s">
-        <v>219</v>
+        <v>20</v>
+      </c>
+      <c r="C194" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="D194" t="s">
-        <v>27</v>
-      </c>
-      <c r="E194" s="8" t="s">
-        <v>222</v>
+        <v>8</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="B195" t="s">
         <v>6</v>
       </c>
-      <c r="C195" t="s">
-        <v>219</v>
+      <c r="C195" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="D195" t="s">
         <v>27</v>
       </c>
       <c r="E195" s="6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C196" t="s">
-        <v>219</v>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>187</v>
+      </c>
+      <c r="B196" t="s">
+        <v>20</v>
+      </c>
+      <c r="C196" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D196" t="s">
+        <v>27</v>
+      </c>
+      <c r="E196" s="6" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="B197" t="s">
         <v>6</v>
       </c>
-      <c r="C197" t="s">
-        <v>219</v>
+      <c r="C197" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D197" t="s">
+        <v>27</v>
       </c>
       <c r="E197" s="6" t="s">
-        <v>229</v>
+        <v>143</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>81</v>
+        <v>189</v>
       </c>
       <c r="B198" t="s">
         <v>6</v>
       </c>
-      <c r="C198" t="s">
-        <v>219</v>
+      <c r="C198" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D198" t="s">
+        <v>27</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="B199" t="s">
-        <v>6</v>
-      </c>
-      <c r="C199" t="s">
-        <v>219</v>
+        <v>20</v>
+      </c>
+      <c r="C199" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D199" t="s">
+        <v>27</v>
       </c>
       <c r="E199" s="6" t="s">
-        <v>227</v>
+        <v>290</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C200" t="s">
-        <v>219</v>
+      <c r="A200" t="s">
+        <v>191</v>
+      </c>
+      <c r="B200" t="s">
+        <v>6</v>
+      </c>
+      <c r="C200" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D200" t="s">
+        <v>27</v>
+      </c>
+      <c r="E200" s="6" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="B201" t="s">
         <v>6</v>
       </c>
-      <c r="C201" t="s">
-        <v>219</v>
+      <c r="C201" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="D201" t="s">
         <v>27</v>
       </c>
       <c r="E201" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="B202" t="s">
-        <v>6</v>
-      </c>
-      <c r="C202" t="s">
-        <v>219</v>
+        <v>20</v>
+      </c>
+      <c r="C202" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="D202" t="s">
         <v>27</v>
       </c>
       <c r="E202" s="6" t="s">
-        <v>233</v>
+        <v>291</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>81</v>
+        <v>194</v>
       </c>
       <c r="B203" t="s">
         <v>6</v>
       </c>
-      <c r="C203" t="s">
-        <v>219</v>
+      <c r="C203" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="D203" t="s">
         <v>27</v>
       </c>
       <c r="E203" s="6" t="s">
-        <v>230</v>
+        <v>143</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="B204" t="s">
         <v>6</v>
       </c>
-      <c r="C204" t="s">
-        <v>219</v>
+      <c r="C204" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="D204" t="s">
         <v>27</v>
       </c>
       <c r="E204" s="6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="B205" t="s">
-        <v>12</v>
-      </c>
-      <c r="C205" t="s">
-        <v>235</v>
+        <v>20</v>
+      </c>
+      <c r="C205" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="D205" t="s">
         <v>27</v>
       </c>
       <c r="E205" s="6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>237</v>
+        <v>197</v>
       </c>
       <c r="B206" t="s">
-        <v>14</v>
-      </c>
-      <c r="C206" t="s">
-        <v>235</v>
+        <v>6</v>
+      </c>
+      <c r="C206" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="D206" t="s">
         <v>27</v>
       </c>
       <c r="E206" s="6" t="s">
-        <v>295</v>
+        <v>143</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" s="4" t="s">
-        <v>238</v>
+      <c r="A207" t="s">
+        <v>198</v>
       </c>
       <c r="B207" t="s">
-        <v>20</v>
-      </c>
-      <c r="C207" t="s">
-        <v>235</v>
+        <v>6</v>
+      </c>
+      <c r="C207" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="D207" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="E207" s="6" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>239</v>
+        <v>199</v>
       </c>
       <c r="B208" t="s">
         <v>6</v>
       </c>
-      <c r="C208" t="s">
-        <v>235</v>
+      <c r="C208" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="D208" t="s">
         <v>27</v>
       </c>
       <c r="E208" s="6" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>241</v>
+        <v>200</v>
       </c>
       <c r="B209" t="s">
-        <v>20</v>
-      </c>
-      <c r="C209" t="s">
-        <v>235</v>
+        <v>14</v>
+      </c>
+      <c r="C209" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="D209" t="s">
         <v>27</v>
       </c>
       <c r="E209" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="B210" t="s">
-        <v>54</v>
-      </c>
-      <c r="C210" t="s">
-        <v>235</v>
+        <v>6</v>
+      </c>
+      <c r="C210" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="D210" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="E210" s="6" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>243</v>
+        <v>203</v>
       </c>
       <c r="B211" t="s">
-        <v>14</v>
-      </c>
-      <c r="C211" t="s">
-        <v>235</v>
+        <v>6</v>
+      </c>
+      <c r="C211" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="D211" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="E211" s="6" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="B212" t="s">
-        <v>54</v>
-      </c>
-      <c r="C212" t="s">
-        <v>235</v>
+        <v>6</v>
+      </c>
+      <c r="C212" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="D212" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="E212" s="6" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C213" t="s">
-        <v>235</v>
+      <c r="A213" t="s">
+        <v>206</v>
+      </c>
+      <c r="B213" t="s">
+        <v>6</v>
+      </c>
+      <c r="C213" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D213" t="s">
+        <v>27</v>
+      </c>
+      <c r="E213" s="6" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="B214" t="s">
-        <v>50</v>
-      </c>
-      <c r="C214" t="s">
-        <v>235</v>
+        <v>6</v>
+      </c>
+      <c r="C214" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="D214" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="E214" s="6" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>63</v>
+        <v>208</v>
       </c>
       <c r="B215" t="s">
-        <v>50</v>
-      </c>
-      <c r="C215" t="s">
-        <v>235</v>
+        <v>6</v>
+      </c>
+      <c r="C215" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="D215" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="E215" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="B216" t="s">
-        <v>50</v>
-      </c>
-      <c r="C216" t="s">
-        <v>235</v>
+        <v>20</v>
+      </c>
+      <c r="C216" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="D216" t="s">
-        <v>27</v>
-      </c>
-      <c r="E216" s="6" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="B217" t="s">
-        <v>50</v>
-      </c>
-      <c r="C217" t="s">
-        <v>235</v>
+        <v>20</v>
+      </c>
+      <c r="C217" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="D217" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="E217" s="6" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>249</v>
-      </c>
-      <c r="B218" t="s">
-        <v>50</v>
-      </c>
-      <c r="C218" t="s">
-        <v>235</v>
-      </c>
-      <c r="D218" t="s">
-        <v>8</v>
+      <c r="A218" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C218" s="12" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="B219" t="s">
-        <v>50</v>
-      </c>
-      <c r="C219" t="s">
-        <v>235</v>
+        <v>6</v>
+      </c>
+      <c r="C219" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="D219" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="E219" s="6" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>251</v>
+        <v>213</v>
       </c>
       <c r="B220" t="s">
-        <v>50</v>
-      </c>
-      <c r="C220" t="s">
-        <v>235</v>
+        <v>6</v>
+      </c>
+      <c r="C220" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="D220" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="E220" s="6" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="B221" t="s">
-        <v>50</v>
-      </c>
-      <c r="C221" t="s">
-        <v>235</v>
+        <v>6</v>
+      </c>
+      <c r="C221" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="D221" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="E221" s="6" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>253</v>
+        <v>215</v>
       </c>
       <c r="B222" t="s">
-        <v>50</v>
-      </c>
-      <c r="C222" t="s">
-        <v>235</v>
+        <v>6</v>
+      </c>
+      <c r="C222" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="D222" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>254</v>
-      </c>
-      <c r="B223" t="s">
-        <v>50</v>
-      </c>
-      <c r="C223" t="s">
-        <v>235</v>
-      </c>
-      <c r="D223" t="s">
-        <v>27</v>
-      </c>
-      <c r="E223" s="6" t="s">
-        <v>298</v>
+        <v>27</v>
+      </c>
+      <c r="E222" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C223" s="12" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>255</v>
+        <v>212</v>
       </c>
       <c r="B224" t="s">
         <v>6</v>
       </c>
-      <c r="C224" t="s">
-        <v>235</v>
+      <c r="C224" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="D224" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="E224" s="6" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>256</v>
+        <v>213</v>
       </c>
       <c r="B225" t="s">
+        <v>6</v>
+      </c>
+      <c r="C225" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D225" t="s">
+        <v>27</v>
+      </c>
+      <c r="E225" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>214</v>
+      </c>
+      <c r="B226" t="s">
+        <v>6</v>
+      </c>
+      <c r="C226" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D226" t="s">
+        <v>27</v>
+      </c>
+      <c r="E226" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>215</v>
+      </c>
+      <c r="B227" t="s">
+        <v>6</v>
+      </c>
+      <c r="C227" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D227" t="s">
+        <v>27</v>
+      </c>
+      <c r="E227" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>217</v>
+      </c>
+      <c r="B228" t="s">
         <v>54</v>
       </c>
-      <c r="C225" t="s">
-        <v>235</v>
-      </c>
-      <c r="D225" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>257</v>
-      </c>
-      <c r="B226" t="s">
-        <v>6</v>
-      </c>
-      <c r="C226" t="s">
-        <v>258</v>
-      </c>
-      <c r="D226" t="s">
-        <v>27</v>
-      </c>
-      <c r="E226" s="6" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A227" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="B227" t="s">
-        <v>14</v>
-      </c>
-      <c r="C227" t="s">
-        <v>258</v>
-      </c>
-      <c r="D227" t="s">
-        <v>27</v>
-      </c>
-      <c r="E227" s="6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>261</v>
-      </c>
-      <c r="B228" t="s">
-        <v>14</v>
-      </c>
-      <c r="C228" t="s">
-        <v>258</v>
+      <c r="C228" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="D228" t="s">
-        <v>27</v>
-      </c>
-      <c r="E228" s="6" t="s">
-        <v>262</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F228">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="PATOLOGIAS NEONATALES "/>
-      </filters>
-    </filterColumn>
+    <sortState ref="A2:F228">
+      <sortCondition ref="C1:C228"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
